--- a/Tabela/Copacabana/Copacabana-4.xlsx
+++ b/Tabela/Copacabana/Copacabana-4.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="117">
-  <si>
-    <t>Rua Barão da Torre, Ipanema</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="126">
+  <si>
+    <t>em construção</t>
   </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>28 - 66 m²</t>
+    <t>R$ 1.350.000</t>
   </si>
   <si>
     <t>super destaque</t>
@@ -31,340 +31,367 @@
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 1.470.000</t>
-  </si>
-  <si>
-    <t>R$ 850.000</t>
+    <t>R$ 180.000</t>
+  </si>
+  <si>
+    <t>R$ 290.000</t>
+  </si>
+  <si>
+    <t>R$ 1.200.000</t>
   </si>
   <si>
     <t>R$ 840.000</t>
   </si>
   <si>
-    <t>R$ 690.000</t>
-  </si>
-  <si>
-    <t>R$ 780.000</t>
+    <t>R$ 1.170.000</t>
+  </si>
+  <si>
+    <t>Um nobre Condomínio com altíssimo padrão de acabamento. Modernos apartamentos de 3 quartos + dependência, 1 ou 2 vagas de garagem, selfstorage, e os melhores itens de lazer para su...</t>
+  </si>
+  <si>
+    <t>R$ 1.900.000</t>
+  </si>
+  <si>
+    <t>R$ 1.790.000</t>
+  </si>
+  <si>
+    <t>R$ 1.700.000</t>
+  </si>
+  <si>
+    <t>R$ 1.100.000</t>
+  </si>
+  <si>
+    <t>R$ 399.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 447 IPTU R$ 185</t>
+  </si>
+  <si>
+    <t>R$ 1.150.000</t>
+  </si>
+  <si>
+    <t>R$ 2.150.000</t>
+  </si>
+  <si>
+    <t>R$ 189.999</t>
+  </si>
+  <si>
+    <t>condomínioR$ 600 IPTU R$ 3.070</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.560 IPTU R$ 3.460</t>
+  </si>
+  <si>
+    <t>R$ 700.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 970 IPTU R$ 2.000</t>
+  </si>
+  <si>
+    <t>R$ 610.000</t>
+  </si>
+  <si>
+    <t>R$ 1.060.000</t>
+  </si>
+  <si>
+    <t>R$ 1.580.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 850 IPTU R$ 2.000</t>
+  </si>
+  <si>
+    <t>R$ 890.000</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.676 IPTU R$ 240</t>
+  </si>
+  <si>
+    <t>condomínioR$ 934 IPTU R$ 2.260</t>
+  </si>
+  <si>
+    <t>condomínioR$ 3.100 IPTU R$ 7.709</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.210 IPTU R$ 3.343</t>
+  </si>
+  <si>
+    <t>condomínioR$ 445 IPTU R$ 77</t>
+  </si>
+  <si>
+    <t>Excelente sala localizada em prédio comercial próximo a comercio, condução e praia. Otima oportunidade de negocio, somente avista.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.450 IPTU R$ 1.742</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.076 IPTU R$ 5.731</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.152 IPTU R$ 1.933</t>
+  </si>
+  <si>
+    <t>AVENIDA NOSSA SENHORA DE COPACABANA LOCALIZAÇÃO NOBRE JUNTO A COMÉRCIO E FARTA CONDUÇÃO METRÔ SIQUEIRA CAMPOS. PRÉDIO BOA APRESENTAÇÃO. ÓTIMA SALA PISO CERÂMICA BANHEIRO DECORADO....</t>
+  </si>
+  <si>
+    <t>Ótima localização: posto 6. Edifício imponente, gradeado, com portaria 24h. 2 por andar. Imóvel em bom estado, alto, claro e bem arejado. Hall de entrada, sala ampla, sala de janta...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.300 IPTU R$ 290</t>
+  </si>
+  <si>
+    <t>condomínioR$ 750 IPTU R$ 2.439</t>
+  </si>
+  <si>
+    <t>Playground, salão de festas, 2 vagas, 1 suítes</t>
+  </si>
+  <si>
+    <t>condomínioR$ 620 IPTU R$ 120</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.000 IPTU R$ 2.448</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.275 IPTU R$ 468</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.187 IPTU R$ 2.930</t>
+  </si>
+  <si>
+    <t>Cód: CPAP20350. Horta vende - Posto 8 Ipanema. Apartamento composto de sala em 2 ambientes com vista livre para rua com jardim de inverno, 2 quartos com armários planejados sendo u...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.100 IPTU R$ 318</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.400 IPTU R$ 320</t>
+  </si>
+  <si>
+    <t>Rua Henrique de Novais, Botafogo</t>
+  </si>
+  <si>
+    <t>Lindo apartamento amplo, claro e ventilado, com planta circular, vista para copa das árvores, composto de: amplo salão com piso em tábuas corridas, 4 quartos sendo 1 suíte com armá...</t>
+  </si>
+  <si>
+    <t>Cód: NSAP21411. Vista panorâmica da Avenida Atlântica, esse imóvel reformado tem vista frontal de andar alto numa localização privilegiada. O apartamento foi reformado e está apena...</t>
+  </si>
+  <si>
+    <t>Prédio com portaria 24 horas. Excelente localização, junto ao metrô Arco Verde, apartamento com planta circular, claro e arejado, piso em taco de madeira na sala, quartos e corredo...</t>
+  </si>
+  <si>
+    <t>Cód: NCAP31773. Apartamento na quadra da praia de Copacabana! Original 3 quartos com varanda interna. Atualmente um dos quartos foi revertido para ampliar a sala, mas facilmente re...</t>
+  </si>
+  <si>
+    <t>COPACABANA – RUA MINISTRO VIVEIROS DE CASTRO – OPORTUNIDADE</t>
+  </si>
+  <si>
+    <t>Creci: 005426/0</t>
+  </si>
+  <si>
+    <t>Excelente apartamento em rua nobre do posto 6, sala super ampla com dois ambientes piso em taco, em andar alto, claro e arejado, possui dois quartos, sendo uma suíte com closet, ba...</t>
+  </si>
+  <si>
+    <t>Copacabana, Apartamento Suntuoso!!! Excelente planta! O imóvel possui 200 metros quadrados, situado à 50m da Av. Atlântica. Apartamento Duplex, todo reformado por arquiteto. O imóv...</t>
+  </si>
+  <si>
+    <t>Cód: NSSL00202. SALA COMERCIAL EM COPACABANA!!</t>
+  </si>
+  <si>
+    <t>LEILÃO JUDICIAL – APARTAMENTO EM COPACABANA</t>
+  </si>
+  <si>
+    <t>Cód: NSAP20968. POSTO 6 - Rainha Elizabeth, quadra da Praia!! Reformado, andar alto, vista mar, portaria imponente. Composto por sala em 2 ambientes, 2 quartos sendo 1 suíte, cozin...</t>
+  </si>
+  <si>
+    <t>, 73m, sala em 2 ambientes,</t>
+  </si>
+  <si>
+    <t>Cód: CPAP10509. Horta vende - Vazio! Excelente apartamento em localização privilegiada, andar alto com vista para o mar e para as montanhas. Sol da manhã, claro, ventilado. Hall de...</t>
+  </si>
+  <si>
+    <t>Clássico apartamento, três dormitórios sendo 1 suíte master, andar alto, silencioso, localização ímpar com vista mar aos dois extremos, Ipanema e Copacabana, 2 quadras das praias,...</t>
+  </si>
+  <si>
+    <t>Loft: Apto Lagoa | 2 Quartos | 115 m² | Cond: R$1275.14 | 1Vaga</t>
+  </si>
+  <si>
+    <t>Cód: NSAP21108. Apartamento em Copacabana edificio prince James melhor prédio da rua, frente, sol da manhã, super claro, sala em 2 ambientes, 2 quartos armários embutidos sendo 1 s...</t>
+  </si>
+  <si>
+    <t>Apartamento com sala em dois ambientes, 3 quartos ( 1 suíte), 2 banheiros, cozinha e área de serviço.</t>
+  </si>
+  <si>
+    <t>Cód: DGAP30105. Excelente localização,na quadra da praia, pertinho do Arpoador e Ipanema. Apartamento de 03 quartos (sendo 01 suite), salão, banheiro social, cozinha com armarios e...</t>
+  </si>
+  <si>
+    <t>78 - 113 m²</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
+  </si>
+  <si>
+    <t>Copacabana, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>120 m²</t>
+  </si>
+  <si>
+    <t>2 quartos, sendo 1 suítes, banheiro social, cozinha com área de serviço.</t>
+  </si>
+  <si>
+    <t>Rua Piragibe Frota Aguiar, Copacabana</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>Praça Eugênio Jardim, Copacabana</t>
+  </si>
+  <si>
+    <t>Avenida Atlântica, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Assis Brasil, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Aires Saldanha, Copacabana</t>
+  </si>
+  <si>
+    <t>Excelente apartamento conjugado, frente, claro, arejado, com área total de 25 metros, composto por sala conjugad...</t>
+  </si>
+  <si>
+    <t>Rua Santa Clara, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Souza Lima, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua República do Peru, Copacabana</t>
+  </si>
+  <si>
+    <t>EXCELENTE SALA REFORMADA, COM HALL DE ENTRA E ESPERA PARA CLIENTES OU PACIENTES, COM BANHEIRO, SALA SEPARADA PARA ATENDIMENTO...</t>
+  </si>
+  <si>
+    <t>36 m²</t>
+  </si>
+  <si>
+    <t>143 m²</t>
+  </si>
+  <si>
+    <t>LANCE INICIAL R$ 700.000,00 m (Valor inicial do lance )</t>
+  </si>
+  <si>
+    <t>Avenida Rainha Elizabeth da Bélgica, Copacabana</t>
+  </si>
+  <si>
+    <t>Imóvel localizado no...</t>
+  </si>
+  <si>
+    <t>Rua Constante Ramos, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Francisco Sá, Copacabana</t>
+  </si>
+  <si>
+    <t>Clique em "Contatar Anunciante", e receba o link por whatsapp para agendar sua visita totalmente online no no...</t>
+  </si>
+  <si>
+    <t>Rua Miguel Lemos, Copacabana</t>
+  </si>
+  <si>
+    <t>90 m²</t>
+  </si>
+  <si>
+    <t>Contato: WhatsApp - corretor Luis Pimenta.</t>
+  </si>
+  <si>
+    <t>Rua Almirante Gonçalves, Copacabana</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>206 m²</t>
+  </si>
+  <si>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>230 m²</t>
+  </si>
+  <si>
+    <t>110 m²</t>
+  </si>
+  <si>
+    <t>18 m²</t>
+  </si>
+  <si>
+    <t>200 m²</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>R$ 4.500.000</t>
-  </si>
-  <si>
-    <t>R$ 5.990.000</t>
-  </si>
-  <si>
-    <t>R$ 320.000</t>
-  </si>
-  <si>
-    <t>R$ 1.900.000</t>
-  </si>
-  <si>
-    <t>R$ 350.000</t>
-  </si>
-  <si>
-    <t>R$ 920.000</t>
-  </si>
-  <si>
-    <t>R$ 960.000</t>
-  </si>
-  <si>
-    <t>R$ 2.810.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.550 IPTU R$ 3.950</t>
-  </si>
-  <si>
-    <t>R$ 580.000</t>
-  </si>
-  <si>
-    <t>R$ 1.075.000</t>
-  </si>
-  <si>
-    <t>R$ 305.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.500 IPTU R$ 3.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 900 IPTU R$ 160</t>
-  </si>
-  <si>
-    <t>R$ 500.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 640 IPTU R$ 905</t>
-  </si>
-  <si>
-    <t>R$ 250.000</t>
-  </si>
-  <si>
-    <t>R$ 529.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 760 IPTU R$ 197</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.037 IPTU R$ 2.456</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.380 IPTU R$ 399</t>
-  </si>
-  <si>
-    <t>condomínio R$ 3.044 IPTU R$ 16.507</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.168 IPTU R$ 1.254</t>
-  </si>
-  <si>
-    <t>condomínio R$ 350 IPTU R$ 690</t>
-  </si>
-  <si>
-    <t>condomínio R$ 9.800 IPTU R$ 3.800</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis Vende:Excelente Sala comercial, com carpete, copa/cozinha e banheiro. Ótima localização. O valor do imóvel poderá sofrer alteração sem aviso prévio. Privilégio V...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.678 IPTU R$ 318</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.300 IPTU R$ 320</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.012 IPTU R$ 9.600</t>
-  </si>
-  <si>
-    <t>O apartamento no bairro Copacabana possui 161 metros quadrados composto de Salão em dois ambientes, lavabo, são 03 quartos sendo uma suíte, cozinha ampla com copa, dependência comp...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 800 IPTU R$ 190</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.800 IPTU R$ 256</t>
-  </si>
-  <si>
-    <t>condomínio R$ 400 IPTU R$ 90</t>
-  </si>
-  <si>
-    <t>O apartamento está localizado no bairro Copacabana tem 110 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosAmpla sala ,banheiro social com armário e blindex,copacozinha p...</t>
-  </si>
-  <si>
-    <t>Próximo a praia, metrô, comércio, supetmercado...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 660 IPTU R$ 1.176</t>
-  </si>
-  <si>
-    <t>Lindo apartamento totalmente reformado com ótima sala, cozinha americana toda planejada, 2 quartos com armário e móveis planejados, banheiro com box blindex e portaria 24h.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 474 IPTU R$ 276</t>
-  </si>
-  <si>
-    <t>condomínio R$ 390</t>
-  </si>
-  <si>
-    <t>Ótima transversal junto ao Posto 6, sendo uma quadra da praia com variedade em lazer e transporte ao redor, duas quadras ao metrô.</t>
-  </si>
-  <si>
-    <t>Aliança Viva vende: Excepcional apartamento localizado na quadra da praia mais cobiçada do Rio de Janeiro, na rua Constante Ramos. Imóvel composto por , sala espaçosa em 2 ambiente...</t>
-  </si>
-  <si>
-    <t>Cód: VEAP30561. Apartamento de 3 quartos à venda na Nossa Senhora de Copacabana, perto metrô Siqueira e Figueiredo. Boa localização, acessibilidade, comércio em geral boa portaria,...</t>
-  </si>
-  <si>
-    <t>Excelente Apartamento!! Vista total Mar do Leme ao Posto 6 !! 330m²!! Maravilhoso apartamento com 3 amplos salões, corredor extenso, grande banheiro social, 3 quartos 3° quarto sui...</t>
-  </si>
-  <si>
-    <t>Excelente localização, junto ao COPACABANA PALACE! 300m2, Completamente reformado. Apenas 2 por andar, composto de salão 4 ambientes com iluminação embutida e teto rebaixado, roupe...</t>
-  </si>
-  <si>
-    <t>Excelente oportunidade no melhor Bairro do Rio!</t>
-  </si>
-  <si>
-    <t>ASSISTA AO VÍDEO DA VISITA GUIADA E NARRADA EM DETALHES!</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>Prédio com total infraestrutura com piscina, sauna, salão de festa, churrasqueira e forno para pizza, salão de jogos com mesa de sinuca oficial, ping-pong, totó, playground... Exce...</t>
-  </si>
-  <si>
-    <t>Ótimo apto. de 3 quartos sendo 1 suíte, Banheiro completo . cozinha e área. Dependência completa e vaga na escritura. Apto de frente, claro, arejado, rico em armários. Excelente pl...</t>
-  </si>
-  <si>
-    <t>maravillhoso apartamento, salão, sala de jantar, sala intima, copa-cozinha, dep empregada, original 4 quartos, facil reverter, suite, lavabo, 3 vagas de garagem. Ed. com lindo salã...</t>
-  </si>
-  <si>
-    <t>Copacabana- Posto 4- Grande oportunidade de morar em um apto localizdo em uma das ruas tracicionais do bairro , perto metro , comercio, sem vista de qq comunidade,sala podendo faze...</t>
-  </si>
-  <si>
-    <t>Imóvel em local de destaque no posto 6 de Copacabana.</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO APARTAMENTO REFORMADO EM COPACABANA! Apartamento amplo, claro e arejado, andar alto, vista livre, dividido, cozinha. Banheiro reformado, prédio gabaritado com portaria...</t>
-  </si>
-  <si>
-    <t>Excelente apartamento, andar alto, claro arejado..</t>
-  </si>
-  <si>
-    <t>Apartamento reformado em Copacabana, com M2, sala, quarto, cozinha com armário e banheiro social. O condomínio, com 11 andares e apenas quatro unidades por andar, conta com portari...</t>
-  </si>
-  <si>
-    <t>Tem...</t>
-  </si>
-  <si>
-    <t>(Código: 45709, Avenida Nossa Senhora de Copacabana) - Copacabana, Próximo à Praça Serzedelo Correa. Local com vasta variedade de transportes, comércio em geral e restaurantes. Pré...</t>
-  </si>
-  <si>
-    <t>Cód: SCAP10005. Desocupado, reformado, mobiliado, conjugadão transformado em quarto e sala, 50 m2, todo em porcelanato 60x60, (elétrica, hidrá;ulica, pintura e gá;s tudo novo), sal...</t>
-  </si>
-  <si>
-    <t>Prédio de excelente apresentação, segurança p...</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>09 / 11 /2021</t>
+  </si>
+  <si>
+    <t>98 m²</t>
+  </si>
+  <si>
+    <t>55 m²</t>
+  </si>
+  <si>
+    <t>88 m²</t>
+  </si>
+  <si>
+    <t>77 m²</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Atualizado Outubro</t>
+  </si>
+  <si>
+    <t>103 m²</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Rua Ministro Viveiros de Castro, Copacabana</t>
   </si>
   <si>
     <t>Rua Barata Ribeiro, Copacabana</t>
   </si>
   <si>
-    <t>Rua Santa Clara, Copacabana</t>
-  </si>
-  <si>
-    <t>Vendo apartamento em Copacabana com sala, 3 quartos, banheiro social e banheiro da suíte (reformados), cozinha com armários...</t>
-  </si>
-  <si>
-    <t>Rua Professor Gastão Bahiana, Copacabana</t>
-  </si>
-  <si>
-    <t>Sala em 2 ambientes com jardim de inverno, original 3 amplos quartos, hoj...</t>
-  </si>
-  <si>
-    <t>Rua Constante Ramos, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
-  </si>
-  <si>
-    <t>Copacabana, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Avenida Atlântica, Copacabana</t>
-  </si>
-  <si>
-    <t>- Sala Quarto com divisória, rica em armários e com ótima localização;</t>
-  </si>
-  <si>
-    <t>GRANDE ANDAR CORRIDO EM LUXUOSO MEDICAL CENTER COLADO AO METRÔ E COM 9 VAGAS DE GARAGEM NA ESCRITURA!</t>
-  </si>
-  <si>
-    <t>20 m²</t>
-  </si>
-  <si>
-    <t>Rua Pompeu Loureiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Tonelero, Copacabana</t>
-  </si>
-  <si>
-    <t>161 m²</t>
-  </si>
-  <si>
-    <t>Rua Siqueira Campos, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Prado Júnior, Copacabana</t>
-  </si>
-  <si>
-    <t>110 m²</t>
-  </si>
-  <si>
-    <t>Rua Djalma Ulrich, Copacabana</t>
-  </si>
-  <si>
-    <t>78 m²</t>
-  </si>
-  <si>
-    <t>150 m²</t>
-  </si>
-  <si>
-    <t>330 m²</t>
-  </si>
-  <si>
-    <t>300 m²</t>
-  </si>
-  <si>
-    <t>- Área útil de 35 m²;</t>
-  </si>
-  <si>
-    <t>97 m²</t>
-  </si>
-  <si>
-    <t>105 m²</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>Rua Souza Lima, Copacabana</t>
-  </si>
-  <si>
-    <t>30 m²</t>
-  </si>
-  <si>
-    <t>Rua Paula Freitas, Copacabana</t>
-  </si>
-  <si>
-    <t>41 m²</t>
-  </si>
-  <si>
-    <t>65 m²</t>
-  </si>
-  <si>
-    <t>27 m²</t>
-  </si>
-  <si>
-    <t>50 m²</t>
-  </si>
-  <si>
-    <t>82 m²</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>- Iluminada e ventilada;</t>
-  </si>
-  <si>
-    <t>ANDAR A...</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>127 m²</t>
-  </si>
-  <si>
-    <t>83 m²</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>40 m²</t>
-  </si>
-  <si>
-    <t>379 m²</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>FORMA DE PAGAMENTO – A VISTA</t>
+  </si>
+  <si>
+    <t>Avenida Henrique Dodsworth, Copacabana</t>
+  </si>
+  <si>
+    <t>25 m²</t>
+  </si>
+  <si>
+    <t>32 m²</t>
+  </si>
+  <si>
+    <t>Valor Avalia...</t>
+  </si>
+  <si>
+    <t>73 m²</t>
+  </si>
+  <si>
+    <t>115 m²</t>
+  </si>
+  <si>
+    <t>112 m²</t>
   </si>
 </sst>
 </file>
@@ -722,13 +749,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -771,8 +798,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -786,13 +819,25 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -803,34 +848,34 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -841,31 +886,31 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -876,34 +921,34 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,34 +959,31 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -949,43 +991,37 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -993,40 +1029,28 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1037,25 +1061,34 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1066,34 +1099,34 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1104,34 +1137,34 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1139,37 +1172,31 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1177,34 +1204,34 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1215,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -1224,25 +1251,40 @@
         <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1253,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -1262,28 +1304,25 @@
         <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1291,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -1303,22 +1342,31 @@
         <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1326,31 +1374,34 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>105</v>
+      </c>
+      <c r="K17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1358,37 +1409,34 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1399,31 +1447,37 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1431,34 +1485,37 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>112</v>
+      </c>
+      <c r="L20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1466,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1475,22 +1532,25 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>105</v>
+      </c>
+      <c r="K21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1509,23 +1569,29 @@
       <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>71</v>
+      </c>
+      <c r="L22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1533,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>50</v>
@@ -1545,22 +1611,22 @@
         <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" t="s">
         <v>106</v>
       </c>
-      <c r="J23" t="s">
-        <v>107</v>
-      </c>
       <c r="K23" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
